--- a/biology/Médecine/John_Elliot_(scientifique)/John_Elliot_(scientifique).xlsx
+++ b/biology/Médecine/John_Elliot_(scientifique)/John_Elliot_(scientifique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Elliot MD (1747 – 22 juillet 1787) est un médecin et scientifique anglais du Londres du XVIIIe siècle qui est le premier à faire l'hypothèse que différentes parties de la rétine réagissent à des couleurs particulières de la lumière. Il aurait découvert l'action chimique de rayons invisibles du spectre lumineux quinze ans avant Herschel.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut apprenti à l'âge de 14 ans chez un pharmacien du faubourg londonien de Spitafields, et s'installe ensuite à Cheapside[1].
-Sa passion amoureuse pour Mary Boydell, nièce de l'éditeur John Boydell et compagne du libraire George Nicol, tourna à l'obsession, si bien qu'en 1787 il fut arrêté pour tentative de meurtre sur sa personne[2],[3]. Bien qu'acquitté de tentative de meurtre, il se laissa mourir de faim en attendant son procès pour voies de fait à la prison de Newgate[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut apprenti à l'âge de 14 ans chez un pharmacien du faubourg londonien de Spitafields, et s'installe ensuite à Cheapside.
+Sa passion amoureuse pour Mary Boydell, nièce de l'éditeur John Boydell et compagne du libraire George Nicol, tourna à l'obsession, si bien qu'en 1787 il fut arrêté pour tentative de meurtre sur sa personne,. Bien qu'acquitté de tentative de meurtre, il se laissa mourir de faim en attendant son procès pour voies de fait à la prison de Newgate.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Rayons calorifiques et chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rayons calorifiques sont l'ancienne appellation du rayonnement infrarouge, donnée par William Herschel, qui constate en 1800 que la lumière solaire décomposée au travers d'un prisme est calorifique en dehors du spectre de la lumière visible, au-delà du rouge. Herschel émet l'hypothèse, déjà suggérée 14 ans plus tôt, soit bien avant leur découverte, par John Elliot, qu'ils sont de même nature que la lumière et que l'œil n'y est pas sensible.
 Les rayons chimiques sont l'ancienne appellation du rayonnement ultraviolet.
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elements of Natural Philosophy. Londres, 1792.</t>
         </is>
